--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 38837-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 38837-2022.xlsx", "A 38837-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 38837-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 38837-2022.png", "A 38837-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 38837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 38837-2022.docx", "A 38837-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 38837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 38837-2022.docx", "A 38837-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 38837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 38837-2022.docx", "A 38837-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 38837-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 38837-2022.docx", "A 38837-2022")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -717,31 +717,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 47192-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 47192-2019.xlsx", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 47192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 47192-2019.png", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 47192-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 47192-2019.png", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 47192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 47192-2019.docx", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 47192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 47192-2019.docx", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 47192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 47192-2019.docx", "A 47192-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 47192-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 47192-2019.docx", "A 47192-2019")</f>
         <v/>
       </c>
     </row>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,27 +811,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 9558-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 9558-2021.xlsx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 9558-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 9558-2021.png", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 9558-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 9558-2021.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 9558-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 9558-2021.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 9558-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 9558-2021.docx", "A 9558-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 9558-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 9558-2021.docx", "A 9558-2021")</f>
         <v/>
       </c>
     </row>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -896,27 +896,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 42209-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 42209-2021.xlsx", "A 42209-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 42209-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 42209-2021.png", "A 42209-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 42209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 42209-2021.docx", "A 42209-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 42209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 42209-2021.docx", "A 42209-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 42209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 42209-2021.docx", "A 42209-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 42209-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 42209-2021.docx", "A 42209-2021")</f>
         <v/>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -981,31 +981,31 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 64504-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 64504-2021.xlsx", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 64504-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 64504-2021.png", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="U6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 64504-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 64504-2021.png", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 64504-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 64504-2021.docx", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 64504-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 64504-2021.docx", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 64504-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 64504-2021.docx", "A 64504-2021")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 64504-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 64504-2021.docx", "A 64504-2021")</f>
         <v/>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1070,27 +1070,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 37408-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 37408-2022.xlsx", "A 37408-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 37408-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 37408-2022.png", "A 37408-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 37408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 37408-2022.docx", "A 37408-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 37408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 37408-2022.docx", "A 37408-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 37408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 37408-2022.docx", "A 37408-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 37408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 37408-2022.docx", "A 37408-2022")</f>
         <v/>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,27 +1160,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 56642-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 56642-2022.xlsx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 56642-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 56642-2022.png", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 56642-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 56642-2022.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 56642-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 56642-2022.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 56642-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 56642-2022.docx", "A 56642-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 56642-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 56642-2022.docx", "A 56642-2022")</f>
         <v/>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1245,27 +1245,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 62010-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 62010-2022.xlsx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 62010-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 62010-2022.png", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 62010-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 62010-2022.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 62010-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 62010-2022.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 62010-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 62010-2022.docx", "A 62010-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 62010-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 62010-2022.docx", "A 62010-2022")</f>
         <v/>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1330,27 +1330,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 11849-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/artfynd/A 11849-2023.xlsx", "A 11849-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 11849-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/kartor/A 11849-2023.png", "A 11849-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 11849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 11849-2023.docx", "A 11849-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 11849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 11849-2023.docx", "A 11849-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 11849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 11849-2023.docx", "A 11849-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 11849-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 11849-2023.docx", "A 11849-2023")</f>
         <v/>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7959,23 +7959,23 @@
       </c>
       <c r="R125" s="2" t="inlineStr"/>
       <c r="U125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 1269-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/knärot/A 1269-2021.png", "A 1269-2021")</f>
         <v/>
       </c>
       <c r="V125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 1269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomål/A 1269-2021.docx", "A 1269-2021")</f>
         <v/>
       </c>
       <c r="W125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 1269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/klagomålsmail/A 1269-2021.docx", "A 1269-2021")</f>
         <v/>
       </c>
       <c r="X125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 1269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsyn/A 1269-2021.docx", "A 1269-2021")</f>
         <v/>
       </c>
       <c r="Y125">
-        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 1269-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_KIL/tillsynsmail/A 1269-2021.docx", "A 1269-2021")</f>
         <v/>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>

--- a/Översikt KIL.xlsx
+++ b/Översikt KIL.xlsx
@@ -572,7 +572,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>43721</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>44251</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         <v>44426</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         <v>44511</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
         <v>44893</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1194,7 +1194,7 @@
         <v>44914</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         <v>44995</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>43363</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>43370</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
         <v>43374</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         <v>43404</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         <v>43406</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>43415</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>43423</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>43427</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43427</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         <v>43433</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>43439</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>43443</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43451</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>43468</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
         <v>43483</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2234,7 +2234,7 @@
         <v>43503</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>43507</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43515</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>43531</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>43531</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>43536</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>43536</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>43542</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>43558</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>43559</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>43559</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>43559</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>43563</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>43564</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>43571</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>43578</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>43578</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>43590</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>43590</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>43590</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>43596</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>43598</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43599</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43600</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43600</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43644</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>43650</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>43650</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>43691</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43692</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43697</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43699</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43700</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43700</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43700</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43700</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43711</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43711</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43756</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43790</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43795</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4576,7 +4576,7 @@
         <v>43840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>43841</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>43843</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
         <v>43882</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43884</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4861,7 +4861,7 @@
         <v>43891</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>43909</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>43909</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>43910</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43911</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>43911</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>43911</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>43911</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>43911</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>43911</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>43913</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43924</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>43929</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>43929</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>43936</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>43940</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>43943</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>43955</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>43955</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>43976</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44027</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>44027</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>44031</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>44031</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44036</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44047</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>44047</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>44047</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>44053</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>44056</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44056</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44064</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>44067</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>44069</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>44069</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>44073</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>44075</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44077</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44077</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>44088</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>44102</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>44109</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>44109</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44109</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         <v>44109</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         <v>44118</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44126</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44126</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44147</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44160</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44208</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44208</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44223</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
         <v>44244</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
         <v>44251</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44265</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8222,7 +8222,7 @@
         <v>44266</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>44266</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
         <v>44270</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>44287</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>44287</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>44287</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>44287</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>44287</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>44299</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>44314</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8807,7 +8807,7 @@
         <v>44314</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8864,7 +8864,7 @@
         <v>44315</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8921,7 +8921,7 @@
         <v>44320</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>44322</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44348</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44371</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>44395</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>44410</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>44412</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>44418</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44419</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>44427</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>44433</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44433</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>44455</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>44461</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>44466</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44474</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44487</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44501</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44502</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44538</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44550</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44560</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44571</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44572</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>44572</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44581</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44581</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44581</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10926,7 +10926,7 @@
         <v>44587</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10983,7 +10983,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11097,7 +11097,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11154,7 +11154,7 @@
         <v>44589</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>44589</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         <v>44594</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11325,7 +11325,7 @@
         <v>44607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11382,7 +11382,7 @@
         <v>44610</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11439,7 +11439,7 @@
         <v>44612</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
         <v>44620</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11553,7 +11553,7 @@
         <v>44623</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11610,7 +11610,7 @@
         <v>44623</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11667,7 +11667,7 @@
         <v>44636</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>44655</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>44655</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44678</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44680</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44711</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44720</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44722</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44733</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>44733</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>44746</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44754</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12381,7 +12381,7 @@
         <v>44768</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12438,7 +12438,7 @@
         <v>44775</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>44790</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12557,7 +12557,7 @@
         <v>44802</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12614,7 +12614,7 @@
         <v>44803</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12671,7 +12671,7 @@
         <v>44811</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12728,7 +12728,7 @@
         <v>44811</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>44833</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>44846</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>44846</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>44847</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>44847</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>44847</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>44847</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>44847</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13241,7 +13241,7 @@
         <v>44852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13298,7 +13298,7 @@
         <v>44852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13355,7 +13355,7 @@
         <v>44855</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13412,7 +13412,7 @@
         <v>44874</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>44876</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13536,7 +13536,7 @@
         <v>44890</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13593,7 +13593,7 @@
         <v>44896</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44896</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44915</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>44927</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44930</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>44936</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>44941</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14002,7 +14002,7 @@
         <v>44942</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14059,7 +14059,7 @@
         <v>44942</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14116,7 +14116,7 @@
         <v>44951</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14173,7 +14173,7 @@
         <v>44959</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14230,7 +14230,7 @@
         <v>44971</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14287,7 +14287,7 @@
         <v>44984</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14344,7 +14344,7 @@
         <v>44991</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14401,7 +14401,7 @@
         <v>44993</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14458,7 +14458,7 @@
         <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14515,7 +14515,7 @@
         <v>45030</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14572,7 +14572,7 @@
         <v>45034</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14629,7 +14629,7 @@
         <v>45036</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45036</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14743,7 +14743,7 @@
         <v>45036</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14800,7 +14800,7 @@
         <v>45037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>45057</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>45058</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15038,7 +15038,7 @@
         <v>45058</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15095,7 +15095,7 @@
         <v>45076</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45078</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45078</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15271,7 +15271,7 @@
         <v>45078</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15328,7 +15328,7 @@
         <v>45091</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>45091</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15442,7 +15442,7 @@
         <v>45093</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>45093</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>45093</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>45098</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>45109</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>45109</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15784,7 +15784,7 @@
         <v>45109</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>45109</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>45112</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>45121</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45121</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16079,7 +16079,7 @@
         <v>45124</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>45139</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16193,7 +16193,7 @@
         <v>45163</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45163</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45166</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16369,7 +16369,7 @@
         <v>45166</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
